--- a/GameBattle/GameBattle/Asset/Data/stage_okashi.xlsx
+++ b/GameBattle/GameBattle/Asset/Data/stage_okashi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameBattle\GameBattle\GameBattle\Asset\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F7401EF-CA12-45EA-B83B-90957542A88C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BCB53815-91F3-4330-9022-5871EDF24601}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8000" xr2:uid="{0DFA8E32-CCBF-4D8B-9107-3B337CEEC88E}"/>
   </bookViews>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C8EE6B-94F6-4699-BCBB-575F766B7601}">
   <dimension ref="A1:BH30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2449,76 +2449,76 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY14">
         <v>0</v>
@@ -3329,22 +3329,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH17">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>0</v>
       </c>
       <c r="AU17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA17">
         <v>0</v>
@@ -3523,112 +3523,112 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AP20">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="BE20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -4579,82 +4579,82 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
         <v>1</v>
@@ -4681,108 +4681,108 @@
         <v>1</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -4917,54 +4917,54 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5099,54 +5099,54 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -5281,54 +5281,54 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5397,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5463,54 +5463,54 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5645,54 +5645,54 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -5827,32 +5827,42 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A32:BH32 A1:BH30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:BH30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
